--- a/2022/Symphony/OCTOBER/06.10.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/OCTOBER/06.10.2022/MC Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3162,6 +3162,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3174,6 +3186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3207,12 +3225,6 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3305,18 +3317,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4027,33 +4027,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="354"/>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
+      <c r="A1" s="358"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="352" t="s">
+      <c r="A2" s="359"/>
+      <c r="B2" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="355"/>
-      <c r="B3" s="353" t="s">
+      <c r="A3" s="359"/>
+      <c r="B3" s="357" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="355"/>
+      <c r="A4" s="359"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4071,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="355"/>
+      <c r="A5" s="359"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="355"/>
+      <c r="A6" s="359"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4101,7 +4101,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="355"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="355"/>
+      <c r="A8" s="359"/>
       <c r="B8" s="26" t="s">
         <v>44</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="355"/>
+      <c r="A9" s="359"/>
       <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="355"/>
+      <c r="A10" s="359"/>
       <c r="B10" s="26" t="s">
         <v>47</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="355"/>
+      <c r="A11" s="359"/>
       <c r="B11" s="26" t="s">
         <v>48</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="355"/>
+      <c r="A12" s="359"/>
       <c r="B12" s="26" t="s">
         <v>49</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="355"/>
+      <c r="A13" s="359"/>
       <c r="B13" s="26" t="s">
         <v>50</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="355"/>
+      <c r="A14" s="359"/>
       <c r="B14" s="26" t="s">
         <v>51</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="355"/>
+      <c r="A15" s="359"/>
       <c r="B15" s="26" t="s">
         <v>52</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="355"/>
+      <c r="A16" s="359"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4285,7 +4285,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="355"/>
+      <c r="A17" s="359"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4298,7 +4298,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="355"/>
+      <c r="A18" s="359"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4311,7 +4311,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="355"/>
+      <c r="A19" s="359"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4324,7 +4324,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="355"/>
+      <c r="A20" s="359"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4337,7 +4337,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="355"/>
+      <c r="A21" s="359"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4350,7 +4350,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="355"/>
+      <c r="A22" s="359"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4363,7 +4363,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="355"/>
+      <c r="A23" s="359"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4376,7 +4376,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="355"/>
+      <c r="A24" s="359"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4389,7 +4389,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="355"/>
+      <c r="A25" s="359"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4402,7 +4402,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="355"/>
+      <c r="A26" s="359"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4415,7 +4415,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="355"/>
+      <c r="A27" s="359"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4428,7 +4428,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="355"/>
+      <c r="A28" s="359"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4441,7 +4441,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="355"/>
+      <c r="A29" s="359"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4454,7 +4454,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="355"/>
+      <c r="A30" s="359"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4467,7 +4467,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="355"/>
+      <c r="A31" s="359"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4480,7 +4480,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="355"/>
+      <c r="A32" s="359"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4493,7 +4493,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="355"/>
+      <c r="A33" s="359"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4506,7 +4506,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="355"/>
+      <c r="A34" s="359"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4519,7 +4519,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="355"/>
+      <c r="A35" s="359"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4532,7 +4532,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="355"/>
+      <c r="A36" s="359"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4545,7 +4545,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="355"/>
+      <c r="A37" s="359"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4558,7 +4558,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="355"/>
+      <c r="A38" s="359"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4571,7 +4571,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="355"/>
+      <c r="A39" s="359"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4584,7 +4584,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="355"/>
+      <c r="A40" s="359"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4597,7 +4597,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="355"/>
+      <c r="A41" s="359"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4610,7 +4610,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="355"/>
+      <c r="A42" s="359"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4623,7 +4623,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="355"/>
+      <c r="A43" s="359"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4636,7 +4636,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="355"/>
+      <c r="A44" s="359"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4649,7 +4649,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="355"/>
+      <c r="A45" s="359"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4662,7 +4662,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="355"/>
+      <c r="A46" s="359"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4675,7 +4675,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="355"/>
+      <c r="A47" s="359"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4688,7 +4688,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="355"/>
+      <c r="A48" s="359"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4701,7 +4701,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="355"/>
+      <c r="A49" s="359"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4714,7 +4714,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="355"/>
+      <c r="A50" s="359"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4727,7 +4727,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="355"/>
+      <c r="A51" s="359"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4740,7 +4740,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="355"/>
+      <c r="A52" s="359"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4753,7 +4753,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="355"/>
+      <c r="A53" s="359"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4766,7 +4766,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="355"/>
+      <c r="A54" s="359"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4779,7 +4779,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="355"/>
+      <c r="A55" s="359"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4791,7 +4791,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="355"/>
+      <c r="A56" s="359"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4803,7 +4803,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="355"/>
+      <c r="A57" s="359"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4815,7 +4815,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="355"/>
+      <c r="A58" s="359"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4827,7 +4827,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="355"/>
+      <c r="A59" s="359"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4839,7 +4839,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="355"/>
+      <c r="A60" s="359"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4851,7 +4851,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="355"/>
+      <c r="A61" s="359"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4863,7 +4863,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="355"/>
+      <c r="A62" s="359"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4875,7 +4875,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="355"/>
+      <c r="A63" s="359"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4887,7 +4887,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="355"/>
+      <c r="A64" s="359"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4899,7 +4899,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="355"/>
+      <c r="A65" s="359"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4911,7 +4911,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="355"/>
+      <c r="A66" s="359"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4923,7 +4923,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="355"/>
+      <c r="A67" s="359"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4935,7 +4935,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="355"/>
+      <c r="A68" s="359"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4947,7 +4947,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="355"/>
+      <c r="A69" s="359"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4959,7 +4959,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="355"/>
+      <c r="A70" s="359"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4971,7 +4971,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="355"/>
+      <c r="A71" s="359"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4983,7 +4983,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="355"/>
+      <c r="A72" s="359"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4995,7 +4995,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="355"/>
+      <c r="A73" s="359"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5007,7 +5007,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="355"/>
+      <c r="A74" s="359"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5019,7 +5019,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="355"/>
+      <c r="A75" s="359"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5031,7 +5031,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="355"/>
+      <c r="A76" s="359"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5043,7 +5043,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="355"/>
+      <c r="A77" s="359"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5055,7 +5055,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="355"/>
+      <c r="A78" s="359"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5067,7 +5067,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="355"/>
+      <c r="A79" s="359"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5079,7 +5079,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="355"/>
+      <c r="A80" s="359"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5091,7 +5091,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="355"/>
+      <c r="A81" s="359"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5103,7 +5103,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="355"/>
+      <c r="A82" s="359"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5115,7 +5115,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="355"/>
+      <c r="A83" s="359"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5169,32 +5169,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="354"/>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
+      <c r="A1" s="358"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
     </row>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="352" t="s">
+      <c r="A2" s="359"/>
+      <c r="B2" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="355"/>
-      <c r="B3" s="353" t="s">
+      <c r="A3" s="359"/>
+      <c r="B3" s="357" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="355"/>
+      <c r="A4" s="359"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="355"/>
+      <c r="A5" s="359"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="355"/>
+      <c r="A6" s="359"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="355"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="26" t="s">
         <v>198</v>
       </c>
@@ -5251,7 +5251,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="355"/>
+      <c r="A8" s="359"/>
       <c r="B8" s="26" t="s">
         <v>205</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="355"/>
+      <c r="A9" s="359"/>
       <c r="B9" s="26" t="s">
         <v>208</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="355"/>
+      <c r="A10" s="359"/>
       <c r="B10" s="26" t="s">
         <v>210</v>
       </c>
@@ -5299,7 +5299,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="355"/>
+      <c r="A11" s="359"/>
       <c r="B11" s="26" t="s">
         <v>220</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="355"/>
+      <c r="A12" s="359"/>
       <c r="B12" s="26" t="s">
         <v>223</v>
       </c>
@@ -5331,7 +5331,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="355"/>
+      <c r="A13" s="359"/>
       <c r="B13" s="26"/>
       <c r="C13" s="247"/>
       <c r="D13" s="247"/>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="355"/>
+      <c r="A14" s="359"/>
       <c r="B14" s="26"/>
       <c r="C14" s="247"/>
       <c r="D14" s="247"/>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="355"/>
+      <c r="A15" s="359"/>
       <c r="B15" s="26"/>
       <c r="C15" s="247"/>
       <c r="D15" s="247"/>
@@ -5361,7 +5361,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="355"/>
+      <c r="A16" s="359"/>
       <c r="B16" s="26"/>
       <c r="C16" s="247"/>
       <c r="D16" s="247"/>
@@ -5371,7 +5371,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="355"/>
+      <c r="A17" s="359"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5381,7 +5381,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="355"/>
+      <c r="A18" s="359"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5391,7 +5391,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="355"/>
+      <c r="A19" s="359"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="355"/>
+      <c r="A20" s="359"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5411,7 +5411,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="355"/>
+      <c r="A21" s="359"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5421,7 +5421,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="355"/>
+      <c r="A22" s="359"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="355"/>
+      <c r="A23" s="359"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5441,7 +5441,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="355"/>
+      <c r="A24" s="359"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="355"/>
+      <c r="A25" s="359"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5461,7 +5461,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="355"/>
+      <c r="A26" s="359"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="355"/>
+      <c r="A27" s="359"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5481,7 +5481,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="355"/>
+      <c r="A28" s="359"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5491,7 +5491,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="355"/>
+      <c r="A29" s="359"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5501,7 +5501,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="355"/>
+      <c r="A30" s="359"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5511,7 +5511,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="355"/>
+      <c r="A31" s="359"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5521,7 +5521,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="355"/>
+      <c r="A32" s="359"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5531,7 +5531,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="355"/>
+      <c r="A33" s="359"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="355"/>
+      <c r="A34" s="359"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="355"/>
+      <c r="A35" s="359"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5561,7 +5561,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="355"/>
+      <c r="A36" s="359"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5571,7 +5571,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="355"/>
+      <c r="A37" s="359"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="355"/>
+      <c r="A38" s="359"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5591,7 +5591,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="355"/>
+      <c r="A39" s="359"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5601,7 +5601,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="355"/>
+      <c r="A40" s="359"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5611,7 +5611,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="355"/>
+      <c r="A41" s="359"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="355"/>
+      <c r="A42" s="359"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5631,7 +5631,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="355"/>
+      <c r="A43" s="359"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5641,7 +5641,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="355"/>
+      <c r="A44" s="359"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5651,7 +5651,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="355"/>
+      <c r="A45" s="359"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="355"/>
+      <c r="A46" s="359"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="355"/>
+      <c r="A47" s="359"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5681,7 +5681,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="355"/>
+      <c r="A48" s="359"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5691,7 +5691,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="355"/>
+      <c r="A49" s="359"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5701,7 +5701,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="355"/>
+      <c r="A50" s="359"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5711,7 +5711,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="355"/>
+      <c r="A51" s="359"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5721,7 +5721,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="355"/>
+      <c r="A52" s="359"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5731,7 +5731,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="355"/>
+      <c r="A53" s="359"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="355"/>
+      <c r="A54" s="359"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="355"/>
+      <c r="A55" s="359"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5761,7 +5761,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="355"/>
+      <c r="A56" s="359"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="355"/>
+      <c r="A57" s="359"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="355"/>
+      <c r="A58" s="359"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5791,7 +5791,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="355"/>
+      <c r="A59" s="359"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5801,7 +5801,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="355"/>
+      <c r="A60" s="359"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5811,7 +5811,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="355"/>
+      <c r="A61" s="359"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5821,7 +5821,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="355"/>
+      <c r="A62" s="359"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5831,7 +5831,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="355"/>
+      <c r="A63" s="359"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -5841,7 +5841,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="355"/>
+      <c r="A64" s="359"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="355"/>
+      <c r="A65" s="359"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -5861,7 +5861,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="355"/>
+      <c r="A66" s="359"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -5871,7 +5871,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="355"/>
+      <c r="A67" s="359"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="355"/>
+      <c r="A68" s="359"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -5891,7 +5891,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="355"/>
+      <c r="A69" s="359"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -5901,7 +5901,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="355"/>
+      <c r="A70" s="359"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -5911,7 +5911,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="355"/>
+      <c r="A71" s="359"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -5921,7 +5921,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="355"/>
+      <c r="A72" s="359"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -5931,7 +5931,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="355"/>
+      <c r="A73" s="359"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -5941,7 +5941,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="355"/>
+      <c r="A74" s="359"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="355"/>
+      <c r="A75" s="359"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -5961,7 +5961,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="355"/>
+      <c r="A76" s="359"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="355"/>
+      <c r="A77" s="359"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -5981,7 +5981,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="355"/>
+      <c r="A78" s="359"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="355"/>
+      <c r="A79" s="359"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6001,7 +6001,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="355"/>
+      <c r="A80" s="359"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="355"/>
+      <c r="A81" s="359"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="355"/>
+      <c r="A82" s="359"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="355"/>
+      <c r="A83" s="359"/>
       <c r="B83" s="267"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6106,67 +6106,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="364" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="358"/>
-      <c r="H1" s="358"/>
-      <c r="I1" s="358"/>
-      <c r="J1" s="358"/>
-      <c r="K1" s="358"/>
-      <c r="L1" s="358"/>
-      <c r="M1" s="358"/>
-      <c r="N1" s="358"/>
-      <c r="O1" s="358"/>
-      <c r="P1" s="358"/>
-      <c r="Q1" s="358"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="365" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
-      <c r="H2" s="359"/>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="L2" s="359"/>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
-      <c r="P2" s="359"/>
-      <c r="Q2" s="359"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="366" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="361"/>
-      <c r="C3" s="361"/>
-      <c r="D3" s="361"/>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361"/>
-      <c r="H3" s="361"/>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="361"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="361"/>
-      <c r="O3" s="361"/>
-      <c r="P3" s="361"/>
-      <c r="Q3" s="362"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="367"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="367"/>
+      <c r="M3" s="367"/>
+      <c r="N3" s="367"/>
+      <c r="O3" s="367"/>
+      <c r="P3" s="367"/>
+      <c r="Q3" s="368"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6175,52 +6175,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="363" t="s">
+      <c r="A4" s="369" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="371" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="367" t="s">
+      <c r="C4" s="360" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="360" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="367" t="s">
+      <c r="E4" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="367" t="s">
+      <c r="F4" s="360" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="367" t="s">
+      <c r="G4" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="367" t="s">
+      <c r="H4" s="360" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="367" t="s">
+      <c r="I4" s="360" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="367" t="s">
+      <c r="J4" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="367" t="s">
+      <c r="K4" s="360" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="367" t="s">
+      <c r="L4" s="360" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="367" t="s">
+      <c r="M4" s="360" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="367" t="s">
+      <c r="N4" s="360" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="356" t="s">
+      <c r="O4" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="373" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6233,22 +6233,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="364"/>
-      <c r="B5" s="366"/>
-      <c r="C5" s="368"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="368"/>
-      <c r="K5" s="368"/>
-      <c r="L5" s="368"/>
-      <c r="M5" s="368"/>
-      <c r="N5" s="368"/>
-      <c r="O5" s="357"/>
-      <c r="P5" s="370"/>
+      <c r="A5" s="370"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
+      <c r="G5" s="361"/>
+      <c r="H5" s="361"/>
+      <c r="I5" s="361"/>
+      <c r="J5" s="361"/>
+      <c r="K5" s="361"/>
+      <c r="L5" s="361"/>
+      <c r="M5" s="361"/>
+      <c r="N5" s="361"/>
+      <c r="O5" s="363"/>
+      <c r="P5" s="374"/>
       <c r="Q5" s="126" t="s">
         <v>38</v>
       </c>
@@ -9211,6 +9211,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9227,9 +9230,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9243,8 +9243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9271,14 +9271,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="378" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="376"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="380"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9372,14 +9372,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="381" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="379"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="383"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9473,14 +9473,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="382"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="386"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -10244,14 +10244,14 @@
         <v>385720</v>
       </c>
       <c r="C10" s="52">
-        <v>544980</v>
+        <v>548980</v>
       </c>
       <c r="D10" s="49">
         <v>2440</v>
       </c>
       <c r="E10" s="49">
         <f t="shared" si="0"/>
-        <v>547420</v>
+        <v>551420</v>
       </c>
       <c r="F10" s="229"/>
       <c r="G10" s="237"/>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>3033655</v>
+        <v>3037655</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -12608,11 +12608,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>3048130</v>
+        <v>3052130</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>514200</v>
+        <v>510200</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -12807,12 +12807,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="373" t="s">
+      <c r="B35" s="377" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="377"/>
+      <c r="E35" s="377"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -14730,10 +14730,10 @@
         <v>1725821212</v>
       </c>
       <c r="D52" s="296">
-        <v>64760</v>
+        <v>60760</v>
       </c>
       <c r="E52" s="299" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F52" s="131"/>
       <c r="G52" s="137"/>
@@ -22282,14 +22282,14 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="371" t="s">
+      <c r="A119" s="375" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="372"/>
-      <c r="C119" s="383"/>
+      <c r="B119" s="376"/>
+      <c r="C119" s="387"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>3334940</v>
+        <v>3330940</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22489,14 +22489,14 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="371" t="s">
+      <c r="A121" s="375" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="372"/>
-      <c r="C121" s="372"/>
+      <c r="B121" s="376"/>
+      <c r="C121" s="376"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>3334940</v>
+        <v>3330940</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -33729,7 +33729,7 @@
   </sheetPr>
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -33749,35 +33749,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="391" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="389"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="393"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="397" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="399"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="394" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="391"/>
-      <c r="C3" s="391"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="392"/>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="396"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33800,15 +33800,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="397"/>
+      <c r="B4" s="401"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="399"/>
+      <c r="E4" s="403"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34042,7 +34042,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="232"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="400"/>
+      <c r="I11" s="352"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -34271,13 +34271,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="384" t="s">
+      <c r="A19" s="388" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="385"/>
-      <c r="C19" s="385"/>
-      <c r="D19" s="385"/>
-      <c r="E19" s="386"/>
+      <c r="B19" s="389"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="389"/>
+      <c r="E19" s="390"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34366,10 +34366,10 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" ht="22.5">
-      <c r="A22" s="401" t="s">
+      <c r="A22" s="353" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="403">
+      <c r="B22" s="355">
         <v>30000</v>
       </c>
       <c r="C22" s="346"/>
@@ -34399,7 +34399,7 @@
       <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:25" ht="21.75">
-      <c r="A23" s="402" t="s">
+      <c r="A23" s="354" t="s">
         <v>228</v>
       </c>
       <c r="B23" s="120">
